--- a/biology/Botanique/Phlomoides/Phlomoides.xlsx
+++ b/biology/Botanique/Phlomoides/Phlomoides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Phlomoides est un genre de plantes à fleurs de la famille des Lamiaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre regroupe près de deux-cent espèces ; il est présent dans une majeure partie de l'Eurasie (paléarctique), à l'ouest jusqu'en Autriche, à l'est jusqu'en Corée, au nord jusqu'en Arctique, au sud jusqu'en Inde[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre regroupe près de deux-cent espèces ; il est présent dans une majeure partie de l'Eurasie (paléarctique), à l'ouest jusqu'en Autriche, à l'est jusqu'en Corée, au nord jusqu'en Arctique, au sud jusqu'en Inde.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont le plus souvent des sous-arbrisseaux ou des arbrisseaux, parfois des herbacées dressées. Les feuilles sont cordées à triangulaires-ovales ; leur nervation n'est pas en éventail ; les verticillasters sont axillaires, laxistes ou denses[2].
-Phlomoides est morphologiquement très semblable à Eremostachys et Phlomis, et de nombreuses espèces ont été successivement classées dans les trois genres. Phlomoides se distingue par la lèvre supérieure de la corolle non comprimée latéralement, non aplatie, en forme d'arche, toujours poilue ou frangée-incisée[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont le plus souvent des sous-arbrisseaux ou des arbrisseaux, parfois des herbacées dressées. Les feuilles sont cordées à triangulaires-ovales ; leur nervation n'est pas en éventail ; les verticillasters sont axillaires, laxistes ou denses.
+Phlomoides est morphologiquement très semblable à Eremostachys et Phlomis, et de nombreuses espèces ont été successivement classées dans les trois genres. Phlomoides se distingue par la lèvre supérieure de la corolle non comprimée latéralement, non aplatie, en forme d'arche, toujours poilue ou frangée-incisée.
 </t>
         </is>
       </c>
@@ -574,10 +590,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Phlomoides Moench[1]. Il a été validement publié en 1794 par le botaniste allemand Conrad Moench[3]. Phlomoides tuberosa est l'espèce type, initialement décrite dans le genre Phlomis par le naturaliste suédois Carl von Linné, dans son ouvrage fondateur de la nomenclature botanique Species Plantarum (1753). Phlomoides et Phlomis sont en outre très semblables, Phlomoides pouvant être un synonyme de Phlomis[4].
-Phlomoides a pour synonymes[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Phlomoides Moench. Il a été validement publié en 1794 par le botaniste allemand Conrad Moench. Phlomoides tuberosa est l'espèce type, initialement décrite dans le genre Phlomis par le naturaliste suédois Carl von Linné, dans son ouvrage fondateur de la nomenclature botanique Species Plantarum (1753). Phlomoides et Phlomis sont en outre très semblables, Phlomoides pouvant être un synonyme de Phlomis.
+Phlomoides a pour synonymes :
 (homotypiques)
 Phlomidopsis Link in Handbuch 1: 479 (1829), nom. superfl.
 Phlomitis Rchb. ex T.Nees in Gen. Fl. Germ. 2(7): 43 (1843), nom. superfl.
@@ -617,9 +635,11 @@
           <t>Composants et usages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les constituants phytochimiques dominants des espèces du genre Phlomoides sont les iridoïdes, les phényléthanoïdes et les furanolabdanes. Les utilisations traditionnelles à long terme, telles que la thérapie des fractures osseuses, les analgésiques locaux et la cicatrisation des plaies, suscitent l'intérêt des chercheurs pour ces plantes. Les espèces et leurs métabolites secondaires ont été impliqués dans la découverte de médicaments du fait de leurs propriétés anti-inflammatoires et de développement osseux in vitro, in vivo et en clinique[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les constituants phytochimiques dominants des espèces du genre Phlomoides sont les iridoïdes, les phényléthanoïdes et les furanolabdanes. Les utilisations traditionnelles à long terme, telles que la thérapie des fractures osseuses, les analgésiques locaux et la cicatrisation des plaies, suscitent l'intérêt des chercheurs pour ces plantes. Les espèces et leurs métabolites secondaires ont été impliqués dans la découverte de médicaments du fait de leurs propriétés anti-inflammatoires et de développement osseux in vitro, in vivo et en clinique.
 </t>
         </is>
       </c>
@@ -648,9 +668,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Plants of the World online (POWO)                (28 octobre 2023)[1] (173 espèces) :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Plants of the World online (POWO)                (28 octobre 2023) (173 espèces) :
 Phlomoides acaulis (Beck ex Rech.f.) Salmaki
 Phlomoides adenantha (Jaub. &amp; Spach) Kamelin &amp; Makhm.
 Phlomoides admirabilis (Czern.) Kamelin &amp; Makhm.
